--- a/jpcore-r4/main/ValueSet-jp-procedure-code-stem7-vs.xlsx
+++ b/jpcore-r4/main/ValueSet-jp-procedure-code-stem7-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
